--- a/docs/assets/release/v0_1_0/jig/term.xlsx
+++ b/docs/assets/release/v0_1_0/jig/term.xlsx
@@ -9,13 +9,13 @@
     <sheet name="TERM" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">TERM!$A$1:$E$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">TERM!$A$1:$E$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="177">
   <si>
     <t/>
   </si>
@@ -537,6 +537,15 @@
   </si>
   <si>
     <t>com.example.sms.service.system.user.UserManagementService#selectAll()</t>
+  </si>
+  <si>
+    <t>selectAllWithPageInfo</t>
+  </si>
+  <si>
+    <t>ユーザー一覧（ページング）</t>
+  </si>
+  <si>
+    <t>com.example.sms.service.system.user.UserManagementService#selectAllWithPageInfo()</t>
   </si>
 </sst>
 </file>
@@ -581,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1597,8 +1606,25 @@
         <v>173</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E59"/>
+  <autoFilter ref="A1:E60"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>